--- a/biology/Médecine/Guide_médical_de_bord/Guide_médical_de_bord.xlsx
+++ b/biology/Médecine/Guide_médical_de_bord/Guide_médical_de_bord.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Guide_m%C3%A9dical_de_bord</t>
+          <t>Guide_médical_de_bord</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Guide médical international de bord  est un livre publié par l’OIT et l’OMS. Ses modifications sont décidées par un comité mixte ILO/OMS de représentants des gens de la mer, des armateurs et d’experts en médecine maritime.
 Ce guide s’inspire du "ship captain’s médical guide" britannique et du "ship’s médecine chest and médical aid at sea"  américain.
